--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE85E54-6C41-4F5D-93C0-EA579FA8758C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38C8D8-2DCA-4E95-9EE8-59B4EB60145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Metodo Aproximado</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>#switch 48p</t>
+  </si>
+  <si>
+    <t>Rack</t>
   </si>
 </sst>
 </file>
@@ -78,12 +81,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,25 +451,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FB46-E830-4CBE-B779-807B1C814CD7}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -460,7 +480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -468,12 +488,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -482,7 +502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -491,7 +511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -499,7 +519,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>

--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C38C8D8-2DCA-4E95-9EE8-59B4EB60145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5ABE60-8F19-472F-8B66-912AC3781D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
       </c>
       <c r="C7">
         <f>+C3*2+C4*4+C5</f>
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
       </c>
       <c r="C8">
         <f>+ROUNDUP(C7*1.2,0)</f>
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5ABE60-8F19-472F-8B66-912AC3781D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65A48C-9963-478B-B7A2-5CAC7F6BF675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
       </c>
       <c r="C7">
         <f>+C3*2+C4*4+C5</f>
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -508,7 +508,7 @@
       </c>
       <c r="C8">
         <f>+ROUNDUP(C7*1.2,0)</f>
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">

--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65A48C-9963-478B-B7A2-5CAC7F6BF675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB35888B-4A15-467E-B095-43A40F12E100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
+    <workbookView xWindow="3168" yWindow="1860" windowWidth="17280" windowHeight="8964" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Metodo Aproximado</t>
   </si>
@@ -59,13 +59,22 @@
     <t>#puertos 20%</t>
   </si>
   <si>
-    <t>multipo 24</t>
-  </si>
-  <si>
-    <t>#switch 48p</t>
-  </si>
-  <si>
     <t>Rack</t>
+  </si>
+  <si>
+    <t>#camaras</t>
+  </si>
+  <si>
+    <t>multipo 48</t>
+  </si>
+  <si>
+    <t>#switch 48p(acceso)</t>
+  </si>
+  <si>
+    <t>#switch 24p(distribución)</t>
+  </si>
+  <si>
+    <t>#switch 24p(core)</t>
   </si>
 </sst>
 </file>
@@ -451,13 +460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FB46-E830-4CBE-B779-807B1C814CD7}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -469,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -492,39 +504,68 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>+C3*2+C4*4+C5</f>
-        <v>132</v>
+      <c r="C5">
+        <f>13+22</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <f>+ROUNDUP(C7*1.2,0)</f>
-        <v>159</v>
+        <f>SUM(C3:C7)</f>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>168</v>
+        <f>+ROUNDUP(C8*1.2,0)</f>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>C10/48</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB35888B-4A15-467E-B095-43A40F12E100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB41000-6406-4FA9-A2E0-9B870DB4E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="1860" windowWidth="17280" windowHeight="8964" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Metodo Aproximado</t>
   </si>
@@ -74,7 +74,25 @@
     <t>#switch 24p(distribución)</t>
   </si>
   <si>
-    <t>#switch 24p(core)</t>
+    <t>#URswitch</t>
+  </si>
+  <si>
+    <t>#URorganizadores</t>
+  </si>
+  <si>
+    <t>#URmultitoma</t>
+  </si>
+  <si>
+    <t>#UR</t>
+  </si>
+  <si>
+    <t>#UR 20%</t>
+  </si>
+  <si>
+    <t>#URventilador</t>
+  </si>
+  <si>
+    <t>Cable</t>
   </si>
 </sst>
 </file>
@@ -90,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,7 +123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,47 +485,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FB46-E830-4CBE-B779-807B1C814CD7}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f>2*C11+1*C12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -508,16 +553,30 @@
         <f>13+22</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -525,8 +584,15 @@
         <f>SUM(C3:C7)</f>
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -534,8 +600,15 @@
         <f>+ROUNDUP(C8*1.2,0)</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <f>+ROUNDUP(F8*1.2,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -543,7 +616,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -552,20 +625,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/calculo aprox equipos.xlsx
+++ b/calculo aprox equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\GitHub\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB41000-6406-4FA9-A2E0-9B870DB4E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC950400-CFBA-47FA-9F57-09E950958E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A91ECAAC-6087-4E8B-9E49-707DB13B2D4D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Metodo Aproximado</t>
   </si>
@@ -92,14 +92,137 @@
     <t>#URventilador</t>
   </si>
   <si>
-    <t>Cable</t>
+    <t>uniview</t>
+  </si>
+  <si>
+    <t>camra</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>pagina web</t>
+  </si>
+  <si>
+    <t>Zimbra</t>
+  </si>
+  <si>
+    <t>servidor linux - apache - html</t>
+  </si>
+  <si>
+    <t>a un sw por ethernet</t>
+  </si>
+  <si>
+    <t>Cableado cobre</t>
+  </si>
+  <si>
+    <t>dmax1</t>
+  </si>
+  <si>
+    <t>dmin1</t>
+  </si>
+  <si>
+    <t>dmax2</t>
+  </si>
+  <si>
+    <t>dmin2</t>
+  </si>
+  <si>
+    <t>dmax3</t>
+  </si>
+  <si>
+    <t>dmin3</t>
+  </si>
+  <si>
+    <t>dmax4</t>
+  </si>
+  <si>
+    <t>dmin4</t>
+  </si>
+  <si>
+    <t>dprom1</t>
+  </si>
+  <si>
+    <t>dprom2</t>
+  </si>
+  <si>
+    <t>dprom3</t>
+  </si>
+  <si>
+    <t>dprom4</t>
+  </si>
+  <si>
+    <t>dajus1</t>
+  </si>
+  <si>
+    <t>dajus2</t>
+  </si>
+  <si>
+    <t>dajus3</t>
+  </si>
+  <si>
+    <t>dajus4</t>
+  </si>
+  <si>
+    <t>nrollos</t>
+  </si>
+  <si>
+    <t>sw1 a core</t>
+  </si>
+  <si>
+    <t>sw2 a core</t>
+  </si>
+  <si>
+    <t>sw3a core</t>
+  </si>
+  <si>
+    <t>sw4 a core</t>
+  </si>
+  <si>
+    <t>fibra monomodo</t>
+  </si>
+  <si>
+    <t>sw1 10%</t>
+  </si>
+  <si>
+    <t>sw2 10%</t>
+  </si>
+  <si>
+    <t>sw3 10%</t>
+  </si>
+  <si>
+    <t>sw4 10%</t>
+  </si>
+  <si>
+    <t>sw1f</t>
+  </si>
+  <si>
+    <t>sw2f</t>
+  </si>
+  <si>
+    <t>sw3f</t>
+  </si>
+  <si>
+    <t>sw4f</t>
+  </si>
+  <si>
+    <t>ncorridas1</t>
+  </si>
+  <si>
+    <t>ncorridas4</t>
+  </si>
+  <si>
+    <t>ncorridas3</t>
+  </si>
+  <si>
+    <t>ncorridas2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +230,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +262,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,15 +277,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,155 +678,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FB46-E830-4CBE-B779-807B1C814CD7}">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H2" sqref="H2:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="F2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>2*C11+1*C12</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1">
+        <v>89.7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>2*3</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f>13+22</f>
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>2*1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1">
+        <f>+I3+I4/2</f>
+        <v>91.11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>2*1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1">
+        <f>+I5*1.1+2.5</f>
+        <v>102.721</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1">
+        <f>ROUNDDOWN(305/I6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1">
+        <f>+L3*1.1</f>
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f>SUM(C3:C7)</f>
         <v>187</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>SUM(F3:F7)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1">
+        <v>99.15</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L10" si="0">+L4*1.1</f>
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f>+ROUNDUP(C8*1.2,0)</f>
         <v>225</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>+ROUNDUP(F8*1.2,0)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
+        <f>+I8+I9/2</f>
+        <v>101.43</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f>C10/48</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <f>+I10*1.1+2.5</f>
+        <v>114.07300000000002</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="1">
+        <f>ROUNDDOWN(305/I11,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>83.29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1">
+        <f>+I13+I14/2</f>
+        <v>83.79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="1">
+        <f>+I15*1.1+2.5</f>
+        <v>94.669000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="1">
+        <f>ROUNDDOWN(305/I16,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1">
+        <f>+I18+I19/2</f>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="1">
+        <f>+I20*1.1+2.5</f>
+        <v>100.84000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="1">
+        <f>ROUNDDOWN(305/I21,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="1">
+        <f>+ROUNDUP(C8/(I7+I12+I17+I22),0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>